--- a/Admin_panel_new2/src/test/resources/Test_Data_For_Admin_42 machine.xlsx
+++ b/Admin_panel_new2/src/test/resources/Test_Data_For_Admin_42 machine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815" firstSheet="7" activeTab="12"/>
+    <workbookView windowWidth="20490" windowHeight="7815" firstSheet="9" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,16 @@
     <sheet name="AuthAdd" sheetId="11" r:id="rId11"/>
     <sheet name="AuthUpdate" sheetId="12" r:id="rId12"/>
     <sheet name="AuthDelete" sheetId="13" r:id="rId13"/>
+    <sheet name="AddTenant" sheetId="14" r:id="rId14"/>
+    <sheet name="UpdateTenant" sheetId="15" r:id="rId15"/>
+    <sheet name="DeleteTenant" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="60">
   <si>
     <t>username</t>
   </si>
@@ -179,6 +182,33 @@
   </si>
   <si>
     <t>Group code</t>
+  </si>
+  <si>
+    <t>Tenant_name</t>
+  </si>
+  <si>
+    <t>Product_code_search_input</t>
+  </si>
+  <si>
+    <t>Assigned_count</t>
+  </si>
+  <si>
+    <t>User_code_search_input</t>
+  </si>
+  <si>
+    <t>tenant1</t>
+  </si>
+  <si>
+    <t>TDC</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>tenant2</t>
+  </si>
+  <si>
+    <t>abc</t>
   </si>
 </sst>
 </file>
@@ -186,10 +216,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -214,8 +244,115 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,125 +367,18 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -359,25 +389,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,157 +443,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,17 +583,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -624,9 +648,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -639,21 +680,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -672,10 +702,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -684,122 +714,126 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1128,18 +1162,18 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1271,7 +1305,7 @@
   <sheetPr/>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
@@ -1290,6 +1324,135 @@
     <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1310,16 +1473,16 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
@@ -1327,16 +1490,16 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E2" t="s">
@@ -1344,16 +1507,16 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E3" t="s">
@@ -1382,49 +1545,49 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1"/>
+      <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1452,26 +1615,26 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1544,7 +1707,7 @@
       <c r="D2">
         <v>123456</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F2" t="s">
@@ -1579,7 +1742,7 @@
       <c r="D3">
         <v>123456</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F3" t="s">
@@ -1654,7 +1817,7 @@
       <c r="D2">
         <v>123456</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F2" t="s">
@@ -1674,7 +1837,7 @@
       <c r="D3">
         <v>123456</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>35</v>
       </c>
       <c r="F3" t="s">
